--- a/data/income_statement/2digits/size/24_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/24_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>24-Manufacture of basic metals</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>24-Manufacture of basic metals</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,839 +841,949 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1495171.96252</v>
+        <v>1637965.03655</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1772514.00277</v>
+        <v>1890098.37195</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2024377.59408</v>
+        <v>2131085.29848</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2051258.07483</v>
+        <v>2158453.03789</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2836953.18465</v>
+        <v>3014471.98231</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2937232.74768</v>
+        <v>3046880.2193</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3088588.90875</v>
+        <v>3325144.02841</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3153660.19355</v>
+        <v>3459456.98095</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3586122.06165</v>
+        <v>3870400.37521</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>9397745.041719999</v>
+        <v>9611726.52111</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8672198.70817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8995802.053090001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>11304508.385</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1336762.64374</v>
+        <v>1460747.70859</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1589289.42999</v>
+        <v>1688099.84594</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1816518.81273</v>
+        <v>1909395.84943</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1843028.02162</v>
+        <v>1941183.89849</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2540625.91178</v>
+        <v>2688920.30065</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2638845.64805</v>
+        <v>2737200.066</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2787693.437200001</v>
+        <v>2988659.769</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2871466.36991</v>
+        <v>3133589.33037</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3247834.17422</v>
+        <v>3483045.67592</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8441166.531649999</v>
+        <v>8640577.840550002</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7487277.860990001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7778888.96593</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9931210.643999999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>134586.85126</v>
+        <v>150392.32384</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>156396.19613</v>
+        <v>175114.01594</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>184314.10878</v>
+        <v>192321.42004</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>188616.31558</v>
+        <v>197175.58888</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>265760.65848</v>
+        <v>292674.20993</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>269222.1571</v>
+        <v>275198.2966299999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>262102.81492</v>
+        <v>290771.36885</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>248169.09431</v>
+        <v>277951.85762</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>298913.43202</v>
+        <v>332972.97528</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>858034.31657</v>
+        <v>872456.8197600001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1087515.36795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1112433.80026</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1236302.877</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>23822.46752</v>
+        <v>26825.00412</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>26828.37665</v>
+        <v>26884.51007</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>23544.67257</v>
+        <v>29368.02901</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>19613.73763</v>
+        <v>20093.55052</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>30566.61439</v>
+        <v>32877.47173</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>29164.94253</v>
+        <v>34481.85667</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>38792.65663</v>
+        <v>45712.89056</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>34024.72932999999</v>
+        <v>47915.79295999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>39374.45541</v>
+        <v>54381.72401</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>98544.19349999999</v>
+        <v>98691.86079999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>97405.47922999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>104479.2869</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>136994.864</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>21996.33372</v>
+        <v>24340.94281</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>22138.95785</v>
+        <v>24013.66149</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>17778.4082</v>
+        <v>18974.1419</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>18497.93873</v>
+        <v>19685.90309</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>27125.14602</v>
+        <v>28787.92648000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>26335.61385</v>
+        <v>28785.26408</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>28346.14633</v>
+        <v>30151.81425</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>27725.85774</v>
+        <v>36399.35504</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>36450.85736</v>
+        <v>38447.15613</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>97265.91391</v>
+        <v>100062.19965</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>96846.47677000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>102029.17268</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>159993.315</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>13651.92198</v>
+        <v>15907.40127</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>14434.18662</v>
+        <v>15781.7072</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>15837.81804</v>
+        <v>16659.55331</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>17168.53565</v>
+        <v>18278.13312</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>25346.51947</v>
+        <v>27243.10906</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>23556.88457</v>
+        <v>25954.86007</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>24688.78107</v>
+        <v>26244.47845</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>26036.5352</v>
+        <v>34282.12017</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>32311.46433</v>
+        <v>34001.07415</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>74874.88026000001</v>
+        <v>77390.27283</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>74157.38756999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>78961.1633</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>142673.622</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>7615.12042</v>
+        <v>7374.451710000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>7161.37685</v>
+        <v>7425.40971</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>798.4941100000001</v>
+        <v>987.72762</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1006.91636</v>
+        <v>1022.63094</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1241.0086</v>
+        <v>1046.88602</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1221.63704</v>
+        <v>1300.36448</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1061.2915</v>
+        <v>1289.08677</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>645.9321</v>
+        <v>823.00377</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2539.21272</v>
+        <v>2680.463029999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>15252.72831</v>
+        <v>15481.89845</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>18587.33315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18583.72827</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>13023.056</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>729.2913199999999</v>
+        <v>1059.08983</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>543.39438</v>
+        <v>806.54458</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1142.09605</v>
+        <v>1326.86097</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>322.48672</v>
+        <v>385.13903</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>537.61795</v>
+        <v>497.9314</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1557.09224</v>
+        <v>1530.03953</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2596.07376</v>
+        <v>2618.24903</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1043.39044</v>
+        <v>1294.2311</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1600.18031</v>
+        <v>1765.61895</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7138.30534</v>
+        <v>7190.028370000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4101.75605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4484.28111</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4296.637</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1473175.6288</v>
+        <v>1613624.09374</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1750375.04492</v>
+        <v>1866084.71046</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2006599.18588</v>
+        <v>2112111.15658</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2032760.1361</v>
+        <v>2138767.1348</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2809828.03863</v>
+        <v>2985684.05583</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2910897.13383</v>
+        <v>3018094.95522</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3060242.76242</v>
+        <v>3294992.21416</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3125934.33581</v>
+        <v>3423057.625909999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3549671.20429</v>
+        <v>3831953.21908</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>9300479.12781</v>
+        <v>9511664.321459999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8575352.2314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8893772.880410001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11144515.07</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1305196.40401</v>
+        <v>1425056.67585</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1554818.0779</v>
+        <v>1661684.10403</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1795568.42412</v>
+        <v>1886036.78636</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1826480.43607</v>
+        <v>1926237.37368</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2494562.08483</v>
+        <v>2647774.78071</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2577277.78011</v>
+        <v>2674232.8025</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2698230.66912</v>
+        <v>2899407.97574</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2740151.0746</v>
+        <v>2995895.31749</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3119963.73878</v>
+        <v>3353569.70595</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8430903.149530001</v>
+        <v>8609672.939210001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>7643932.642119999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7950050.21723</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10004105.204</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>866203.22201</v>
+        <v>964619.8359300001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1050331.99617</v>
+        <v>1137421.22089</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1245589.44527</v>
+        <v>1314703.55209</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1197488.55708</v>
+        <v>1263679.89082</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1705972.4223</v>
+        <v>1816020.53452</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1842700.01819</v>
+        <v>1908907.22036</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1955491.20306</v>
+        <v>2094079.94959</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1954373.79042</v>
+        <v>2149788.81575</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2139542.30381</v>
+        <v>2319244.37278</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5538207.560900001</v>
+        <v>5664536.73116</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5334630.789100001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5583094.751889999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6595787.166</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>382939.32827</v>
+        <v>398121.06509</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>435021.77263</v>
+        <v>446213.21722</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>486324.86897</v>
+        <v>498214.45273</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>530651.2660599999</v>
+        <v>557364.7193900001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>681003.8380400001</v>
+        <v>721762.1404</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>645321.36523</v>
+        <v>672001.31016</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>616808.7530800001</v>
+        <v>655937.66588</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>666942.8157200001</v>
+        <v>712136.6552899999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>836957.63301</v>
+        <v>885490.6548299999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2658677.57986</v>
+        <v>2705130.14193</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2082463.14644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2149664.84155</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3157032.867</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>49834.55794999999</v>
+        <v>52362.60308</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>63929.76502</v>
+        <v>72312.13645999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>57822.06509</v>
+        <v>65213.55446</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>89751.05421</v>
+        <v>96709.14125</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>87083.7424</v>
+        <v>87114.3754</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>82083.0677</v>
+        <v>83400.96511</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>107962.19692</v>
+        <v>131313.42982</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>108764.62657</v>
+        <v>123708.59989</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>134657.63876</v>
+        <v>139265.32369</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>218759.47208</v>
+        <v>222970.18943</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>200793.50968</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>192025.53313</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>227267.413</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>6219.29578</v>
+        <v>9953.17175</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5534.54408</v>
+        <v>5737.52946</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5832.04479</v>
+        <v>7905.22708</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>8589.558719999999</v>
+        <v>8483.622219999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>20502.08209</v>
+        <v>22877.73039</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7173.328989999999</v>
+        <v>9923.306869999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>17968.51606</v>
+        <v>18076.93045</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>10069.84189</v>
+        <v>10261.24656</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>8806.163199999999</v>
+        <v>9569.354650000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>15258.53669</v>
+        <v>17035.87669</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>26045.1969</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>25265.09066</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>24017.758</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>167979.22479</v>
+        <v>188567.41789</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>195556.96702</v>
+        <v>204400.60643</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>211030.76176</v>
+        <v>226074.37022</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>206279.70003</v>
+        <v>212529.76112</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>315265.9538</v>
+        <v>337909.27512</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>333619.35372</v>
+        <v>343862.15272</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>362012.0932999999</v>
+        <v>395584.23842</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>385783.26121</v>
+        <v>427162.30842</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>429707.46551</v>
+        <v>478383.5131299999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>869575.9782799999</v>
+        <v>901991.38225</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>931419.58928</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>943722.66318</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1140409.866</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>121704.12485</v>
+        <v>137566.67944</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>134862.05213</v>
+        <v>149230.5322</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>137542.9885</v>
+        <v>186424.51104</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>138124.42217</v>
+        <v>176611.06405</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>201547.2364</v>
+        <v>211547.01706</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>224168.35357</v>
+        <v>226923.67236</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>228458.23834</v>
+        <v>249063.3875</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>249559.1449</v>
+        <v>280253.07859</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>262706.34022</v>
+        <v>295443.27121</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>458269.54854</v>
+        <v>471505.0246600001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>529412.6519299999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>545154.81424</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>568780.334</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>445.0663</v>
+        <v>587.10649</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>313.76834</v>
+        <v>343.39506</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>162.92724</v>
+        <v>12243.85879</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>490.12485</v>
+        <v>11055.14775</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1035.03746</v>
+        <v>1751.07301</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1450.15829</v>
+        <v>1358.88304</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>312.23295</v>
+        <v>320.5069099999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>778.88852</v>
+        <v>871.82913</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>610.97223</v>
+        <v>722.51377</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>976.4277600000001</v>
+        <v>862.80994</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1920.29594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1832.79421</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2284.778</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>21158.12579</v>
+        <v>24625.69559</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>24696.33385</v>
+        <v>27125.78389</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>26637.41861</v>
+        <v>26989.47381</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>25380.70355</v>
+        <v>27413.81701</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>44511.59165000001</v>
+        <v>46816.16188</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>46957.07622</v>
+        <v>48000.50945000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>40109.21718</v>
+        <v>43946.28416</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>41648.92826</v>
+        <v>46746.27543</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>47932.35281</v>
+        <v>52911.4519</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>108208.28415</v>
+        <v>109837.47239</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>121525.74719</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>124436.34993</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>132497.939</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>100100.93276</v>
+        <v>112353.87736</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>109851.94994</v>
+        <v>121761.35325</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>110742.64265</v>
+        <v>147191.17844</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>112253.59377</v>
+        <v>138142.09929</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>156000.60729</v>
+        <v>162979.78217</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>175761.11906</v>
+        <v>177564.27987</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>188036.78821</v>
+        <v>204796.59643</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>207131.32812</v>
+        <v>232634.97403</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>214163.01518</v>
+        <v>241809.30554</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>349084.83663</v>
+        <v>360804.74233</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>405966.6087999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>418885.6701</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>433997.617</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>46275.09994</v>
+        <v>51000.73845</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>60694.91489</v>
+        <v>55170.07423000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>73487.77325999999</v>
+        <v>39649.85918</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>68155.27786</v>
+        <v>35918.69706999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>113718.7174</v>
+        <v>126362.25806</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>109451.00015</v>
+        <v>116938.48036</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>133553.85496</v>
+        <v>146520.85092</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>136224.11631</v>
+        <v>146909.22983</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>167001.12529</v>
+        <v>182940.24192</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>411306.42974</v>
+        <v>430486.35759</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>402006.93735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>398567.84894</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>571629.532</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>15843.48658</v>
+        <v>35596.97095</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>12870.55633</v>
+        <v>22003.77916000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>17017.42750000001</v>
+        <v>39466.05233</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>15778.88582</v>
+        <v>38681.91869000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>26294.60678</v>
+        <v>32750.08557</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>33812.97070000001</v>
+        <v>50311.42261</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>36886.10407</v>
+        <v>72093.68066</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>29166.70368</v>
+        <v>50732.76512</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>31868.18001</v>
+        <v>70532.00505000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>282560.68307</v>
+        <v>325471.3899899999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>129450.279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>140433.6732</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>231234.285</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>2890</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>395.22692</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>288.81794</v>
@@ -1790,22 +1801,27 @@
         <v>19.3405</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>104.6418</v>
+        <v>4243.15961</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4</v>
+        <v>15394.75354</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>50.206</v>
+        <v>23963.71085</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>7.49607</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>178.239</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1826,7 +1842,7 @@
         <v>99.51505999999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>34.0295</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>34.03</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1946.74493</v>
+        <v>3809.78688</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1873.69636</v>
+        <v>4581.63986</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3738.34424</v>
+        <v>5305.80807</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3710.70219</v>
+        <v>3528.73252</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2644.93044</v>
+        <v>2736.49133</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3324.15829</v>
+        <v>14940.33518</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3145.49762</v>
+        <v>4995.863480000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3566.39523</v>
+        <v>5457.510969999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3693.56416</v>
+        <v>5943.501399999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>13636.55878</v>
+        <v>14907.17234</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>14143.58687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>18167.52943</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>14358.635</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>44.42361999999999</v>
@@ -1892,154 +1918,174 @@
         <v>0.38697</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>69.76688000000001</v>
+        <v>69.76688</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>103.56777</v>
+        <v>4.57118</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>337.77735</v>
+        <v>56.47521</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>17.99792</v>
+        <v>483.45124</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>17.33176</v>
+        <v>18.92594</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>46.46632</v>
+        <v>5.91736</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>257.17717</v>
+        <v>113.80927</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>263.31304</v>
+        <v>3502.85578</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>296.47517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>300.0227400000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1905.25</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>379.94183</v>
+        <v>502.10211</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>250.02842</v>
+        <v>291.50695</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>460.42846</v>
+        <v>550.9275</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>1201.16784</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>239.49597</v>
+        <v>323.01354</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3873.72809</v>
+        <v>4605.51546</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1460.24817</v>
+        <v>19215.1619</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>514.96012</v>
+        <v>5863.16897</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>168.22072</v>
+        <v>206.1515</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1337.50776</v>
+        <v>1416.42698</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4572.62578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4524.46883</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>897.418</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>180.14306</v>
+        <v>241.49559</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>93.88154</v>
+        <v>120.21143</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>822.19517</v>
+        <v>1118.95916</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>156.683</v>
+        <v>149.49751</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>639.77139</v>
+        <v>610.9183500000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>284.81106</v>
+        <v>273.04965</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>185.64581</v>
+        <v>615.7944199999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>330.1321</v>
+        <v>435.67779</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>506.71299</v>
+        <v>6724.594149999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>849.5049300000001</v>
+        <v>789.4955900000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1266.13917</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1164.74006</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>5416.467</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>8215.422719999999</v>
+        <v>22898.35764</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>7064.06542</v>
+        <v>13709.02436</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>9842.721079999999</v>
+        <v>26223.1567</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>7066.298779999999</v>
+        <v>31172.65956</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>17008.32225</v>
+        <v>22287.06011</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>20127.96665</v>
+        <v>22131.20264</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>25370.229</v>
+        <v>36866.20799</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>17698.96067</v>
+        <v>24676.15515999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>19271.36584</v>
+        <v>33558.65139</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>248081.29484</v>
+        <v>256920.43544</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>88201.68511000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>94448.83087000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>174555.146</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>16.88729</v>
@@ -2069,16 +2115,21 @@
         <v>80.44897999999999</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>935.84977</v>
+        <v>935.8497699999999</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>4395.361059999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>851.624</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2093,265 +2144,300 @@
         <v>35.23179</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>38.03264</v>
+        <v>416.10853</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>468.77709</v>
+        <v>7.928229999999999</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>580.2917</v>
+        <v>63.28187999999999</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>0</v>
+        <v>29.88098</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>538.85563</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>19.10702</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5059.92313</v>
+        <v>5193.917820000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3477.00554</v>
+        <v>2794.29059</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1795.15369</v>
+        <v>5908.61604</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3495.13285</v>
+        <v>2579.95669</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5339.11441</v>
+        <v>6272.85617</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>5481.24</v>
+        <v>7635.648609999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6006.54398</v>
+        <v>10166.12902</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6890.117380000001</v>
+        <v>10036.1452</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>7886.69015</v>
+        <v>8480.213839999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>17406.44795</v>
+        <v>23035.44324</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>15994.02464</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>17372.08762</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>33037.476</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>14321.45509</v>
+        <v>28592.17351</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>12988.80156</v>
+        <v>20403.27819</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>18627.20523</v>
+        <v>26872.59175</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>13421.25655</v>
+        <v>24724.88834</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>39448.47889</v>
+        <v>37746.22027</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>32708.4105</v>
+        <v>32927.13875</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>30627.19317</v>
+        <v>41514.15012999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>26637.05683</v>
+        <v>37053.27103</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>28308.1535</v>
+        <v>55381.51115000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>298139.85589</v>
+        <v>334354.16737</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>127820.24509</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>130561.26977</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>219441.383</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>115.1485</v>
+        <v>157.18053</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>274.0750400000001</v>
+        <v>263.86666</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>501.75856</v>
+        <v>501.85761</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>340.23086</v>
+        <v>342.28823</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>377.32856</v>
+        <v>381.13364</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>245.09123</v>
+        <v>241.03596</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>357.11885</v>
+        <v>358.50666</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>392.83925</v>
+        <v>403.74806</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>549.8355700000001</v>
+        <v>4069.54593</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1862.83799</v>
+        <v>1868.72421</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1699.56671</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1651.73831</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3828.858</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2582.28161</v>
+        <v>3231.38095</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3741.451340000001</v>
+        <v>3737.32475</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1461.11846</v>
+        <v>1664.02691</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1982.43557</v>
+        <v>5029.87432</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>6849.93813</v>
+        <v>6179.98882</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5757.733450000001</v>
+        <v>5883.715259999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1790.73445</v>
+        <v>4497.76478</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4742.011820000001</v>
+        <v>5308.23459</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5161.36978</v>
+        <v>6759.38825</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>14019.96855</v>
+        <v>14468.89817</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>14950.69234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>18082.68053</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3915.49</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>17.28628</v>
+        <v>339.74076</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>13.83653</v>
+        <v>28.63719</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>16.91956</v>
+        <v>425.57126</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>6.962</v>
+        <v>5.43973</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>5627.59766</v>
+        <v>634.2449399999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>69.70311</v>
+        <v>63.40172</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>69.83105999999999</v>
+        <v>45.43147</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>19.96758</v>
+        <v>135.91429</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>53.78468</v>
+        <v>49.1399</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1807.48135</v>
+        <v>1785.42593</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>454.91776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>451.05728</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>89.41</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>9585.912329999999</v>
+        <v>22040.59669</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>7051.034539999999</v>
+        <v>14975.7163</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>13912.35439</v>
+        <v>21489.28343</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>6564.542510000001</v>
+        <v>15637.04412</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>21434.14401</v>
+        <v>27801.75711</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>22010.4228</v>
+        <v>23658.31638</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>24045.17739</v>
+        <v>32795.00418</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>17195.75354</v>
+        <v>27135.30032</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>18341.76288</v>
+        <v>40509.28676</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>273201.47505</v>
+        <v>308331.72666</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>96909.72550999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>99051.14327000002</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>194912.738</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2363,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>23.66184</v>
+        <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>75.27212</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>3722.68345</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2020.909</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2405,7 +2496,7 @@
         <v>46.27263</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>2.54377</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>1.67569</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>3.68433</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>228.416</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2020.82637</v>
+        <v>2823.27458</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1888.97772</v>
+        <v>1378.3069</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2734.263480000001</v>
+        <v>2791.06176</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4457.151140000001</v>
+        <v>3663.96931</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5081.654640000001</v>
+        <v>2673.82364</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4554.7883</v>
+        <v>3009.99782</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4242.41792</v>
+        <v>3695.52954</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4268.088640000001</v>
+        <v>4051.677769999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4200.25177</v>
+        <v>3993.00149</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6083.52052</v>
+        <v>6734.81997</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10078.97499</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>7598.2826</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>14445.562</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>29524.52049</v>
+        <v>38761.92213000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>19392.99896</v>
+        <v>25493.12399</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>20611.65752</v>
+        <v>73881.29665</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>24354.45918</v>
+        <v>35968.9285</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>31065.26279</v>
+        <v>40766.51824999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>36606.55667000001</v>
+        <v>43282.92227</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>45226.43936</v>
+        <v>55008.51991</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>45479.67298</v>
+        <v>64683.34373000002</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>42442.38522</v>
+        <v>60270.22594999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>181455.65878</v>
+        <v>205699.41148</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>156476.51522</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>172049.54548</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>147639.095</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>27979.35129</v>
+        <v>36664.02486</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>18389.30443</v>
+        <v>23735.01865</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>19906.93873</v>
+        <v>24061.42396</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>22932.42628</v>
+        <v>26522.72548</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>28446.03778</v>
+        <v>37744.00474</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>34402.75335</v>
+        <v>41375.60481999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>43146.35111</v>
+        <v>51009.78036</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>42659.40909</v>
+        <v>60342.89809999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>40842.10194</v>
+        <v>58452.82226000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>177470.9023</v>
+        <v>201720.45166</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>152074.88581</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>166740.81822</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>140954.141</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1545.1692</v>
+        <v>2097.89727</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1003.69453</v>
+        <v>1758.10534</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>704.71879</v>
+        <v>49819.87269</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1422.0329</v>
+        <v>9446.203019999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2619.22501</v>
+        <v>3022.51351</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2203.80332</v>
+        <v>1907.31745</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2080.08825</v>
+        <v>3998.73955</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2820.26389</v>
+        <v>4340.44563</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1600.28328</v>
+        <v>1817.40369</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3984.75648</v>
+        <v>3978.95982</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4401.62941</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5308.72726</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>6684.954</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>18272.61094</v>
+        <v>19243.61376</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>41183.6707</v>
+        <v>31277.45121</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>51266.33801000001</v>
+        <v>-21637.97689</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>46158.44795</v>
+        <v>13906.79892</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>69499.5825</v>
+        <v>80599.60511</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>73949.00368000001</v>
+        <v>91039.84194999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>94586.3265</v>
+        <v>122091.86154</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>93274.09018000001</v>
+        <v>95905.38019</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>128118.76658</v>
+        <v>137820.50987</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>214271.59814</v>
+        <v>215904.16873</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>247160.45604</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>236390.7068900001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>435783.339</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>12253.29083</v>
+        <v>31633.37813</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>9465.367649999998</v>
+        <v>22414.8363</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>34646.05142</v>
+        <v>33370.80742</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>10585.41744</v>
+        <v>9152.160310000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>27270.70195</v>
+        <v>28259.615</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>26169.94742</v>
+        <v>61827.07989</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>21930.978</v>
+        <v>28338.34887999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>19146.26585</v>
+        <v>44141.60865</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>24937.79288</v>
+        <v>29554.88742</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>28246.93053</v>
+        <v>31760.03111</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>45330.23826999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>46538.1268</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>56226.271</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>36.64974</v>
+        <v>935.2249399999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>315.1523700000001</v>
+        <v>315.3183700000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>41.34079</v>
+        <v>95.12597</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>7.046780000000001</v>
+        <v>7.027950000000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>560.86352</v>
+        <v>1124.53798</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>162.00485</v>
+        <v>146.81967</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>75.14373999999999</v>
+        <v>264.90088</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>49.38427</v>
+        <v>105.47377</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>132.74424</v>
+        <v>134.16141</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>140.3197</v>
+        <v>1024.71981</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>129.19474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>263.78274</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>115.799</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>12216.64109</v>
+        <v>30698.15319</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>9150.21528</v>
+        <v>22099.51793</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>34604.71063</v>
+        <v>33275.68145</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>10578.37066</v>
+        <v>9145.13236</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>26709.83843</v>
+        <v>27135.07702</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>26007.94257</v>
+        <v>61680.26022</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>21855.83426</v>
+        <v>28073.448</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>19096.88158</v>
+        <v>44036.13488000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>24805.04864</v>
+        <v>29420.72601</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>28106.61083</v>
+        <v>30735.3113</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>45201.04353</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>46274.34406</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>56110.472</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>10870.28381</v>
+        <v>28275.92787</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6234.30107</v>
+        <v>8320.963229999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>53560.15962000001</v>
+        <v>64984.54054000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>22658.2365</v>
+        <v>23605.32193</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>15225.19427</v>
+        <v>10348.26374</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>184514.77259</v>
+        <v>182444.03784</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>17234.49795</v>
+        <v>35533.92166</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>54704.18739</v>
+        <v>70781.43748999998</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>20534.94779</v>
+        <v>22267.8241</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>73614.10092</v>
+        <v>85459.27915</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>36630.09829000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>45832.99394</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>48938.934</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1122.25003</v>
+        <v>5967.54984</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>374.8814199999999</v>
+        <v>2302.7702</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>209.48697</v>
+        <v>1516.24123</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>828.89765</v>
+        <v>617.76423</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>989.4818800000002</v>
+        <v>562.4348599999998</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1046.99676</v>
+        <v>4659.70096</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>856.42783</v>
+        <v>1803.88759</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1628.02568</v>
+        <v>7120.444280000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>977.69565</v>
+        <v>1958.04863</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3147.747350000001</v>
+        <v>14039.63709</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2044.78581</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>10396.18864</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>18164.428</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>653.7199000000001</v>
+        <v>1153.11991</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>305.16829</v>
+        <v>318.6669600000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>36.11915</v>
+        <v>489.9669</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>302.7053</v>
+        <v>300.26603</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>768.24475</v>
+        <v>578.5175400000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>290.19212</v>
+        <v>311.034</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>155.99708</v>
+        <v>362.52789</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>893.61638</v>
+        <v>1033.30055</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2070.78569</v>
+        <v>1317.0856</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>665.8895100000001</v>
+        <v>853.51503</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3948.31656</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3950.80565</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>659.769</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>9094.31388</v>
+        <v>21155.25812</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5554.251359999999</v>
+        <v>5699.526069999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>53314.5535</v>
+        <v>62978.33241</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>21526.63355</v>
+        <v>22687.29167</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>13467.46764</v>
+        <v>9207.31134</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>183177.58371</v>
+        <v>177473.30288</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>16222.07304</v>
+        <v>33367.50618</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>52182.54533</v>
+        <v>62627.69265999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>17486.46645</v>
+        <v>18992.68987</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>69800.46406</v>
+        <v>70566.12703</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>30636.99592</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>31485.99965</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>30114.737</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>19655.61796</v>
+        <v>22601.06402</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>44414.73728</v>
+        <v>45371.32428</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>32352.22981</v>
+        <v>-53251.71001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>34085.62889</v>
+        <v>-546.3627000000021</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>81545.09018000001</v>
+        <v>98510.95637</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-84395.82148999997</v>
+        <v>-29577.116</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>99282.80654999999</v>
+        <v>114896.28876</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>57716.16864</v>
+        <v>69265.55134999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>132521.61167</v>
+        <v>145107.57319</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>168904.42775</v>
+        <v>162204.92069</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>255860.59602</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>237095.83975</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>443070.676</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>9407.352060000001</v>
+        <v>10840.27694</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>10710.1448</v>
+        <v>11283.53571</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>11864.21249</v>
+        <v>13260.34204</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>12260.65705</v>
+        <v>12758.14187</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>18856.67009</v>
+        <v>19331.35902</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>19436.12141</v>
+        <v>20769.32042</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>20715.60954</v>
+        <v>22599.6978</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>22234.98005</v>
+        <v>23542.92643</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>24803.06702</v>
+        <v>27747.52396</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>65350.97969</v>
+        <v>65175.77568000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>59533.17733</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>57199.46469</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>92185.811</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>10248.2659</v>
+        <v>11760.78708</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>33704.59248</v>
+        <v>34087.78857</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>20488.01732</v>
+        <v>-66512.05205</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>21824.97184</v>
+        <v>-13304.50457</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>62688.42009000001</v>
+        <v>79179.59735000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-103831.9429</v>
+        <v>-50346.43642</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>78567.19701</v>
+        <v>92296.59095999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>35481.18859000001</v>
+        <v>45722.62491999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>107718.54465</v>
+        <v>117360.04923</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>103553.44806</v>
+        <v>97029.14500999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>196327.41869</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>179896.37506</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>350884.865</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>734</v>
+        <v>652</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>743</v>
+        <v>663</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>768</v>
+        <v>658</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>942</v>
+        <v>784</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>959</v>
+        <v>783</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1015</v>
+        <v>873</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1080</v>
+        <v>897</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1103</v>
+        <v>936</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>966</v>
+        <v>854</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>883</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>